--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Grn-Tnfrsf1b.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Grn-Tnfrsf1b.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.112576657729</v>
+        <v>40.19608333333333</v>
       </c>
       <c r="H2">
-        <v>40.112576657729</v>
+        <v>120.58825</v>
       </c>
       <c r="I2">
-        <v>0.03615695811797284</v>
+        <v>0.03460557835761813</v>
       </c>
       <c r="J2">
-        <v>0.03615695811797284</v>
+        <v>0.03460557835761813</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.7636511144321</v>
+        <v>14.77583066666667</v>
       </c>
       <c r="N2">
-        <v>14.7636511144321</v>
+        <v>44.32749200000001</v>
       </c>
       <c r="O2">
-        <v>0.08086883680032153</v>
+        <v>0.08021112995490697</v>
       </c>
       <c r="P2">
-        <v>0.08086883680032153</v>
+        <v>0.08021112995490694</v>
       </c>
       <c r="Q2">
-        <v>592.2080870756238</v>
+        <v>593.9305207965557</v>
       </c>
       <c r="R2">
-        <v>592.2080870756238</v>
+        <v>5345.374687169001</v>
       </c>
       <c r="S2">
-        <v>0.002923971145238406</v>
+        <v>0.002775752542807624</v>
       </c>
       <c r="T2">
-        <v>0.002923971145238406</v>
+        <v>0.002775752542807623</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.112576657729</v>
+        <v>40.19608333333333</v>
       </c>
       <c r="H3">
-        <v>40.112576657729</v>
+        <v>120.58825</v>
       </c>
       <c r="I3">
-        <v>0.03615695811797284</v>
+        <v>0.03460557835761813</v>
       </c>
       <c r="J3">
-        <v>0.03615695811797284</v>
+        <v>0.03460557835761813</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.5037973206734</v>
+        <v>10.54486</v>
       </c>
       <c r="N3">
-        <v>10.5037973206734</v>
+        <v>31.63458</v>
       </c>
       <c r="O3">
-        <v>0.05753521704931362</v>
+        <v>0.05724315301774575</v>
       </c>
       <c r="P3">
-        <v>0.05753521704931362</v>
+        <v>0.05724315301774573</v>
       </c>
       <c r="Q3">
-        <v>421.3343752227602</v>
+        <v>423.8620712983333</v>
       </c>
       <c r="R3">
-        <v>421.3343752227602</v>
+        <v>3814.758641685</v>
       </c>
       <c r="S3">
-        <v>0.00208029843316051</v>
+        <v>0.001980932417192726</v>
       </c>
       <c r="T3">
-        <v>0.00208029843316051</v>
+        <v>0.001980932417192725</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.112576657729</v>
+        <v>40.19608333333333</v>
       </c>
       <c r="H4">
-        <v>40.112576657729</v>
+        <v>120.58825</v>
       </c>
       <c r="I4">
-        <v>0.03615695811797284</v>
+        <v>0.03460557835761813</v>
       </c>
       <c r="J4">
-        <v>0.03615695811797284</v>
+        <v>0.03460557835761813</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>62.0549505764634</v>
+        <v>62.4849</v>
       </c>
       <c r="N4">
-        <v>62.0549505764634</v>
+        <v>187.4547</v>
       </c>
       <c r="O4">
-        <v>0.3399099336555321</v>
+        <v>0.3392015343967147</v>
       </c>
       <c r="P4">
-        <v>0.3399099336555321</v>
+        <v>0.3392015343967146</v>
       </c>
       <c r="Q4">
-        <v>2489.183961989972</v>
+        <v>2511.648247475</v>
       </c>
       <c r="R4">
-        <v>2489.183961989972</v>
+        <v>22604.834227275</v>
       </c>
       <c r="S4">
-        <v>0.012290109235066</v>
+        <v>0.01173826527758982</v>
       </c>
       <c r="T4">
-        <v>0.012290109235066</v>
+        <v>0.01173826527758981</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>40.112576657729</v>
+        <v>40.19608333333333</v>
       </c>
       <c r="H5">
-        <v>40.112576657729</v>
+        <v>120.58825</v>
       </c>
       <c r="I5">
-        <v>0.03615695811797284</v>
+        <v>0.03460557835761813</v>
       </c>
       <c r="J5">
-        <v>0.03615695811797284</v>
+        <v>0.03460557835761813</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>93.5069834691996</v>
+        <v>94.42181166666666</v>
       </c>
       <c r="N5">
-        <v>93.5069834691996</v>
+        <v>283.265435</v>
       </c>
       <c r="O5">
-        <v>0.5121904417308454</v>
+        <v>0.512572211811989</v>
       </c>
       <c r="P5">
-        <v>0.5121904417308454</v>
+        <v>0.5125722118119888</v>
       </c>
       <c r="Q5">
-        <v>3750.806042441267</v>
+        <v>3795.387010237639</v>
       </c>
       <c r="R5">
-        <v>3750.806042441267</v>
+        <v>34158.48309213875</v>
       </c>
       <c r="S5">
-        <v>0.01851924835008819</v>
+        <v>0.01773785783979743</v>
       </c>
       <c r="T5">
-        <v>0.01851924835008819</v>
+        <v>0.01773785783979741</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>40.112576657729</v>
+        <v>40.19608333333333</v>
       </c>
       <c r="H6">
-        <v>40.112576657729</v>
+        <v>120.58825</v>
       </c>
       <c r="I6">
-        <v>0.03615695811797284</v>
+        <v>0.03460557835761813</v>
       </c>
       <c r="J6">
-        <v>0.03615695811797284</v>
+        <v>0.03460557835761813</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.73353914114111</v>
+        <v>1.984323333333333</v>
       </c>
       <c r="N6">
-        <v>1.73353914114111</v>
+        <v>5.952970000000001</v>
       </c>
       <c r="O6">
-        <v>0.009495570763987301</v>
+        <v>0.01077197081864371</v>
       </c>
       <c r="P6">
-        <v>0.009495570763987301</v>
+        <v>0.01077197081864371</v>
       </c>
       <c r="Q6">
-        <v>69.53672168819647</v>
+        <v>79.76202606694444</v>
       </c>
       <c r="R6">
-        <v>69.53672168819647</v>
+        <v>717.8582346025</v>
       </c>
       <c r="S6">
-        <v>0.0003433309544197362</v>
+        <v>0.0003727702802305508</v>
       </c>
       <c r="T6">
-        <v>0.0003433309544197362</v>
+        <v>0.0003727702802305507</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>90.202521392177</v>
+        <v>90.21844233333333</v>
       </c>
       <c r="H7">
-        <v>90.202521392177</v>
+        <v>270.655327</v>
       </c>
       <c r="I7">
-        <v>0.08130738685628834</v>
+        <v>0.07767078572253315</v>
       </c>
       <c r="J7">
-        <v>0.08130738685628834</v>
+        <v>0.07767078572253316</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.7636511144321</v>
+        <v>14.77583066666667</v>
       </c>
       <c r="N7">
-        <v>14.7636511144321</v>
+        <v>44.32749200000001</v>
       </c>
       <c r="O7">
-        <v>0.08086883680032153</v>
+        <v>0.08021112995490697</v>
       </c>
       <c r="P7">
-        <v>0.08086883680032153</v>
+        <v>0.08021112995490694</v>
       </c>
       <c r="Q7">
-        <v>1331.7185554762</v>
+        <v>1333.052426927765</v>
       </c>
       <c r="R7">
-        <v>1331.7185554762</v>
+        <v>11997.47184234989</v>
       </c>
       <c r="S7">
-        <v>0.00657523379834179</v>
+        <v>0.006230061487289839</v>
       </c>
       <c r="T7">
-        <v>0.00657523379834179</v>
+        <v>0.006230061487289838</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>90.202521392177</v>
+        <v>90.21844233333333</v>
       </c>
       <c r="H8">
-        <v>90.202521392177</v>
+        <v>270.655327</v>
       </c>
       <c r="I8">
-        <v>0.08130738685628834</v>
+        <v>0.07767078572253315</v>
       </c>
       <c r="J8">
-        <v>0.08130738685628834</v>
+        <v>0.07767078572253316</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.5037973206734</v>
+        <v>10.54486</v>
       </c>
       <c r="N8">
-        <v>10.5037973206734</v>
+        <v>31.63458</v>
       </c>
       <c r="O8">
-        <v>0.05753521704931362</v>
+        <v>0.05724315301774575</v>
       </c>
       <c r="P8">
-        <v>0.05753521704931362</v>
+        <v>0.05724315301774573</v>
       </c>
       <c r="Q8">
-        <v>947.4690025171338</v>
+        <v>951.3408438230733</v>
       </c>
       <c r="R8">
-        <v>947.4690025171338</v>
+        <v>8562.067594407659</v>
       </c>
       <c r="S8">
-        <v>0.004678038150489059</v>
+        <v>0.004446120672123507</v>
       </c>
       <c r="T8">
-        <v>0.004678038150489059</v>
+        <v>0.004446120672123506</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>90.202521392177</v>
+        <v>90.21844233333333</v>
       </c>
       <c r="H9">
-        <v>90.202521392177</v>
+        <v>270.655327</v>
       </c>
       <c r="I9">
-        <v>0.08130738685628834</v>
+        <v>0.07767078572253315</v>
       </c>
       <c r="J9">
-        <v>0.08130738685628834</v>
+        <v>0.07767078572253316</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>62.0549505764634</v>
+        <v>62.4849</v>
       </c>
       <c r="N9">
-        <v>62.0549505764634</v>
+        <v>187.4547</v>
       </c>
       <c r="O9">
-        <v>0.3399099336555321</v>
+        <v>0.3392015343967147</v>
       </c>
       <c r="P9">
-        <v>0.3399099336555321</v>
+        <v>0.3392015343967146</v>
       </c>
       <c r="Q9">
-        <v>5597.513006863926</v>
+        <v>5637.2903473541</v>
       </c>
       <c r="R9">
-        <v>5597.513006863926</v>
+        <v>50735.6131261869</v>
       </c>
       <c r="S9">
-        <v>0.02763718847202565</v>
+        <v>0.02634604969488169</v>
       </c>
       <c r="T9">
-        <v>0.02763718847202565</v>
+        <v>0.02634604969488168</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>90.202521392177</v>
+        <v>90.21844233333333</v>
       </c>
       <c r="H10">
-        <v>90.202521392177</v>
+        <v>270.655327</v>
       </c>
       <c r="I10">
-        <v>0.08130738685628834</v>
+        <v>0.07767078572253315</v>
       </c>
       <c r="J10">
-        <v>0.08130738685628834</v>
+        <v>0.07767078572253316</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>93.5069834691996</v>
+        <v>94.42181166666666</v>
       </c>
       <c r="N10">
-        <v>93.5069834691996</v>
+        <v>283.265435</v>
       </c>
       <c r="O10">
-        <v>0.5121904417308454</v>
+        <v>0.512572211811989</v>
       </c>
       <c r="P10">
-        <v>0.5121904417308454</v>
+        <v>0.5125722118119888</v>
       </c>
       <c r="Q10">
-        <v>8434.565676698418</v>
+        <v>8518.588770858027</v>
       </c>
       <c r="R10">
-        <v>8434.565676698418</v>
+        <v>76667.29893772224</v>
       </c>
       <c r="S10">
-        <v>0.04164486638990306</v>
+        <v>0.03981188643097387</v>
       </c>
       <c r="T10">
-        <v>0.04164486638990306</v>
+        <v>0.03981188643097386</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>90.202521392177</v>
+        <v>90.21844233333333</v>
       </c>
       <c r="H11">
-        <v>90.202521392177</v>
+        <v>270.655327</v>
       </c>
       <c r="I11">
-        <v>0.08130738685628834</v>
+        <v>0.07767078572253315</v>
       </c>
       <c r="J11">
-        <v>0.08130738685628834</v>
+        <v>0.07767078572253316</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.73353914114111</v>
+        <v>1.984323333333333</v>
       </c>
       <c r="N11">
-        <v>1.73353914114111</v>
+        <v>5.952970000000001</v>
       </c>
       <c r="O11">
-        <v>0.009495570763987301</v>
+        <v>0.01077197081864371</v>
       </c>
       <c r="P11">
-        <v>0.009495570763987301</v>
+        <v>0.01077197081864371</v>
       </c>
       <c r="Q11">
-        <v>156.3696014629571</v>
+        <v>179.0225602190211</v>
       </c>
       <c r="R11">
-        <v>156.3696014629571</v>
+        <v>1611.20304197119</v>
       </c>
       <c r="S11">
-        <v>0.0007720600455287769</v>
+        <v>0.0008366674372642555</v>
       </c>
       <c r="T11">
-        <v>0.0007720600455287769</v>
+        <v>0.0008366674372642554</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>547.023962481895</v>
+        <v>548.9084373333334</v>
       </c>
       <c r="H12">
-        <v>547.023962481895</v>
+        <v>1646.725312</v>
       </c>
       <c r="I12">
-        <v>0.4930803291384774</v>
+        <v>0.4725657915915454</v>
       </c>
       <c r="J12">
-        <v>0.4930803291384774</v>
+        <v>0.4725657915915454</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>14.7636511144321</v>
+        <v>14.77583066666667</v>
       </c>
       <c r="N12">
-        <v>14.7636511144321</v>
+        <v>44.32749200000001</v>
       </c>
       <c r="O12">
-        <v>0.08086883680032153</v>
+        <v>0.08021112995490697</v>
       </c>
       <c r="P12">
-        <v>0.08086883680032153</v>
+        <v>0.08021112995490694</v>
       </c>
       <c r="Q12">
-        <v>8076.070933316892</v>
+        <v>8110.578121541947</v>
       </c>
       <c r="R12">
-        <v>8076.070933316892</v>
+        <v>72995.20309387751</v>
       </c>
       <c r="S12">
-        <v>0.03987483266654836</v>
+        <v>0.03790503612159293</v>
       </c>
       <c r="T12">
-        <v>0.03987483266654836</v>
+        <v>0.03790503612159291</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>547.023962481895</v>
+        <v>548.9084373333334</v>
       </c>
       <c r="H13">
-        <v>547.023962481895</v>
+        <v>1646.725312</v>
       </c>
       <c r="I13">
-        <v>0.4930803291384774</v>
+        <v>0.4725657915915454</v>
       </c>
       <c r="J13">
-        <v>0.4930803291384774</v>
+        <v>0.4725657915915454</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.5037973206734</v>
+        <v>10.54486</v>
       </c>
       <c r="N13">
-        <v>10.5037973206734</v>
+        <v>31.63458</v>
       </c>
       <c r="O13">
-        <v>0.05753521704931362</v>
+        <v>0.05724315301774575</v>
       </c>
       <c r="P13">
-        <v>0.05753521704931362</v>
+        <v>0.05724315301774573</v>
       </c>
       <c r="Q13">
-        <v>5745.828831461475</v>
+        <v>5788.162624498774</v>
       </c>
       <c r="R13">
-        <v>5745.828831461475</v>
+        <v>52093.46362048896</v>
       </c>
       <c r="S13">
-        <v>0.02836948375972929</v>
+        <v>0.02705115591902698</v>
       </c>
       <c r="T13">
-        <v>0.02836948375972929</v>
+        <v>0.02705115591902697</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>547.023962481895</v>
+        <v>548.9084373333334</v>
       </c>
       <c r="H14">
-        <v>547.023962481895</v>
+        <v>1646.725312</v>
       </c>
       <c r="I14">
-        <v>0.4930803291384774</v>
+        <v>0.4725657915915454</v>
       </c>
       <c r="J14">
-        <v>0.4930803291384774</v>
+        <v>0.4725657915915454</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>62.0549505764634</v>
+        <v>62.4849</v>
       </c>
       <c r="N14">
-        <v>62.0549505764634</v>
+        <v>187.4547</v>
       </c>
       <c r="O14">
-        <v>0.3399099336555321</v>
+        <v>0.3392015343967147</v>
       </c>
       <c r="P14">
-        <v>0.3399099336555321</v>
+        <v>0.3392015343967146</v>
       </c>
       <c r="Q14">
-        <v>33945.54495595516</v>
+        <v>34298.4888159296</v>
       </c>
       <c r="R14">
-        <v>33945.54495595516</v>
+        <v>308686.3993433664</v>
       </c>
       <c r="S14">
-        <v>0.1676029019643078</v>
+        <v>0.1602950416112503</v>
       </c>
       <c r="T14">
-        <v>0.1676029019643078</v>
+        <v>0.1602950416112503</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>547.023962481895</v>
+        <v>548.9084373333334</v>
       </c>
       <c r="H15">
-        <v>547.023962481895</v>
+        <v>1646.725312</v>
       </c>
       <c r="I15">
-        <v>0.4930803291384774</v>
+        <v>0.4725657915915454</v>
       </c>
       <c r="J15">
-        <v>0.4930803291384774</v>
+        <v>0.4725657915915454</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>93.5069834691996</v>
+        <v>94.42181166666666</v>
       </c>
       <c r="N15">
-        <v>93.5069834691996</v>
+        <v>283.265435</v>
       </c>
       <c r="O15">
-        <v>0.5121904417308454</v>
+        <v>0.512572211811989</v>
       </c>
       <c r="P15">
-        <v>0.5121904417308454</v>
+        <v>0.5125722118119888</v>
       </c>
       <c r="Q15">
-        <v>51150.56061705061</v>
+        <v>51828.9290921323</v>
       </c>
       <c r="R15">
-        <v>51150.56061705061</v>
+        <v>466460.3618291907</v>
       </c>
       <c r="S15">
-        <v>0.2525510315902274</v>
+        <v>0.2422240930227618</v>
       </c>
       <c r="T15">
-        <v>0.2525510315902274</v>
+        <v>0.2422240930227617</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>547.023962481895</v>
+        <v>548.9084373333334</v>
       </c>
       <c r="H16">
-        <v>547.023962481895</v>
+        <v>1646.725312</v>
       </c>
       <c r="I16">
-        <v>0.4930803291384774</v>
+        <v>0.4725657915915454</v>
       </c>
       <c r="J16">
-        <v>0.4930803291384774</v>
+        <v>0.4725657915915454</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.73353914114111</v>
+        <v>1.984323333333333</v>
       </c>
       <c r="N16">
-        <v>1.73353914114111</v>
+        <v>5.952970000000001</v>
       </c>
       <c r="O16">
-        <v>0.009495570763987301</v>
+        <v>0.01077197081864371</v>
       </c>
       <c r="P16">
-        <v>0.009495570763987301</v>
+        <v>0.01077197081864371</v>
       </c>
       <c r="Q16">
-        <v>948.287450104471</v>
+        <v>1089.211820064071</v>
       </c>
       <c r="R16">
-        <v>948.287450104471</v>
+        <v>9802.906380576642</v>
       </c>
       <c r="S16">
-        <v>0.004682079157664562</v>
+        <v>0.005090464916913392</v>
       </c>
       <c r="T16">
-        <v>0.004682079157664562</v>
+        <v>0.00509046491691339</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>425.341362003131</v>
+        <v>474.7139793333333</v>
       </c>
       <c r="H17">
-        <v>425.341362003131</v>
+        <v>1424.141938</v>
       </c>
       <c r="I17">
-        <v>0.3833972058941633</v>
+        <v>0.4086903610246367</v>
       </c>
       <c r="J17">
-        <v>0.3833972058941633</v>
+        <v>0.4086903610246367</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>14.7636511144321</v>
+        <v>14.77583066666667</v>
       </c>
       <c r="N17">
-        <v>14.7636511144321</v>
+        <v>44.32749200000001</v>
       </c>
       <c r="O17">
-        <v>0.08086883680032153</v>
+        <v>0.08021112995490697</v>
       </c>
       <c r="P17">
-        <v>0.08086883680032153</v>
+        <v>0.08021112995490694</v>
       </c>
       <c r="Q17">
-        <v>6279.591473151592</v>
+        <v>7014.293373728834</v>
       </c>
       <c r="R17">
-        <v>6279.591473151592</v>
+        <v>63128.64036355951</v>
       </c>
       <c r="S17">
-        <v>0.03100488607315436</v>
+        <v>0.03278151565946498</v>
       </c>
       <c r="T17">
-        <v>0.03100488607315436</v>
+        <v>0.03278151565946497</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>425.341362003131</v>
+        <v>474.7139793333333</v>
       </c>
       <c r="H18">
-        <v>425.341362003131</v>
+        <v>1424.141938</v>
       </c>
       <c r="I18">
-        <v>0.3833972058941633</v>
+        <v>0.4086903610246367</v>
       </c>
       <c r="J18">
-        <v>0.3833972058941633</v>
+        <v>0.4086903610246367</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>10.5037973206734</v>
+        <v>10.54486</v>
       </c>
       <c r="N18">
-        <v>10.5037973206734</v>
+        <v>31.63458</v>
       </c>
       <c r="O18">
-        <v>0.05753521704931362</v>
+        <v>0.05724315301774575</v>
       </c>
       <c r="P18">
-        <v>0.05753521704931362</v>
+        <v>0.05724315301774573</v>
       </c>
       <c r="Q18">
-        <v>4467.699458580062</v>
+        <v>5005.792452112893</v>
       </c>
       <c r="R18">
-        <v>4467.699458580062</v>
+        <v>45052.13206901604</v>
       </c>
       <c r="S18">
-        <v>0.02205884145722107</v>
+        <v>0.02339472487301103</v>
       </c>
       <c r="T18">
-        <v>0.02205884145722107</v>
+        <v>0.02339472487301102</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>425.341362003131</v>
+        <v>474.7139793333333</v>
       </c>
       <c r="H19">
-        <v>425.341362003131</v>
+        <v>1424.141938</v>
       </c>
       <c r="I19">
-        <v>0.3833972058941633</v>
+        <v>0.4086903610246367</v>
       </c>
       <c r="J19">
-        <v>0.3833972058941633</v>
+        <v>0.4086903610246367</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>62.0549505764634</v>
+        <v>62.4849</v>
       </c>
       <c r="N19">
-        <v>62.0549505764634</v>
+        <v>187.4547</v>
       </c>
       <c r="O19">
-        <v>0.3399099336555321</v>
+        <v>0.3392015343967147</v>
       </c>
       <c r="P19">
-        <v>0.3399099336555321</v>
+        <v>0.3392015343967146</v>
       </c>
       <c r="Q19">
-        <v>26394.53719722992</v>
+        <v>29662.4555272454</v>
       </c>
       <c r="R19">
-        <v>26394.53719722992</v>
+        <v>266962.0997452086</v>
       </c>
       <c r="S19">
-        <v>0.1303205188192014</v>
+        <v>0.1386283975527041</v>
       </c>
       <c r="T19">
-        <v>0.1303205188192014</v>
+        <v>0.138628397552704</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>425.341362003131</v>
+        <v>474.7139793333333</v>
       </c>
       <c r="H20">
-        <v>425.341362003131</v>
+        <v>1424.141938</v>
       </c>
       <c r="I20">
-        <v>0.3833972058941633</v>
+        <v>0.4086903610246367</v>
       </c>
       <c r="J20">
-        <v>0.3833972058941633</v>
+        <v>0.4086903610246367</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>93.5069834691996</v>
+        <v>94.42181166666666</v>
       </c>
       <c r="N20">
-        <v>93.5069834691996</v>
+        <v>283.265435</v>
       </c>
       <c r="O20">
-        <v>0.5121904417308454</v>
+        <v>0.512572211811989</v>
       </c>
       <c r="P20">
-        <v>0.5121904417308454</v>
+        <v>0.5125722118119888</v>
       </c>
       <c r="Q20">
-        <v>39772.38770559361</v>
+        <v>44823.35395214589</v>
       </c>
       <c r="R20">
-        <v>39772.38770559361</v>
+        <v>403410.185569313</v>
       </c>
       <c r="S20">
-        <v>0.1963723842453033</v>
+        <v>0.2094833222966383</v>
       </c>
       <c r="T20">
-        <v>0.1963723842453033</v>
+        <v>0.2094833222966382</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>425.341362003131</v>
+        <v>474.7139793333333</v>
       </c>
       <c r="H21">
-        <v>425.341362003131</v>
+        <v>1424.141938</v>
       </c>
       <c r="I21">
-        <v>0.3833972058941633</v>
+        <v>0.4086903610246367</v>
       </c>
       <c r="J21">
-        <v>0.3833972058941633</v>
+        <v>0.4086903610246367</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.73353914114111</v>
+        <v>1.984323333333333</v>
       </c>
       <c r="N21">
-        <v>1.73353914114111</v>
+        <v>5.952970000000001</v>
       </c>
       <c r="O21">
-        <v>0.009495570763987301</v>
+        <v>0.01077197081864371</v>
       </c>
       <c r="P21">
-        <v>0.009495570763987301</v>
+        <v>0.01077197081864371</v>
       </c>
       <c r="Q21">
-        <v>737.3458993786977</v>
+        <v>941.9860258506511</v>
       </c>
       <c r="R21">
-        <v>737.3458993786977</v>
+        <v>8477.87423265586</v>
       </c>
       <c r="S21">
-        <v>0.003640575299283036</v>
+        <v>0.004402400642818349</v>
       </c>
       <c r="T21">
-        <v>0.003640575299283036</v>
+        <v>0.004402400642818347</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>6.72088624911391</v>
+        <v>7.512300333333333</v>
       </c>
       <c r="H22">
-        <v>6.72088624911391</v>
+        <v>22.536901</v>
       </c>
       <c r="I22">
-        <v>0.006058119993098176</v>
+        <v>0.006467483303666671</v>
       </c>
       <c r="J22">
-        <v>0.006058119993098176</v>
+        <v>0.006467483303666671</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>14.7636511144321</v>
+        <v>14.77583066666667</v>
       </c>
       <c r="N22">
-        <v>14.7636511144321</v>
+        <v>44.32749200000001</v>
       </c>
       <c r="O22">
-        <v>0.08086883680032153</v>
+        <v>0.08021112995490697</v>
       </c>
       <c r="P22">
-        <v>0.08086883680032153</v>
+        <v>0.08021112995490694</v>
       </c>
       <c r="Q22">
-        <v>99.22481976170197</v>
+        <v>111.0004776424769</v>
       </c>
       <c r="R22">
-        <v>99.22481976170197</v>
+        <v>999.0042987822922</v>
       </c>
       <c r="S22">
-        <v>0.0004899131170386213</v>
+        <v>0.0005187641437515984</v>
       </c>
       <c r="T22">
-        <v>0.0004899131170386213</v>
+        <v>0.0005187641437515982</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>6.72088624911391</v>
+        <v>7.512300333333333</v>
       </c>
       <c r="H23">
-        <v>6.72088624911391</v>
+        <v>22.536901</v>
       </c>
       <c r="I23">
-        <v>0.006058119993098176</v>
+        <v>0.006467483303666671</v>
       </c>
       <c r="J23">
-        <v>0.006058119993098176</v>
+        <v>0.006467483303666671</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>10.5037973206734</v>
+        <v>10.54486</v>
       </c>
       <c r="N23">
-        <v>10.5037973206734</v>
+        <v>31.63458</v>
       </c>
       <c r="O23">
-        <v>0.05753521704931362</v>
+        <v>0.05724315301774575</v>
       </c>
       <c r="P23">
-        <v>0.05753521704931362</v>
+        <v>0.05724315301774573</v>
       </c>
       <c r="Q23">
-        <v>70.59482697599339</v>
+        <v>79.21615529295333</v>
       </c>
       <c r="R23">
-        <v>70.59482697599339</v>
+        <v>712.94539763658</v>
       </c>
       <c r="S23">
-        <v>0.0003485552487136898</v>
+        <v>0.0003702191363915071</v>
       </c>
       <c r="T23">
-        <v>0.0003485552487136898</v>
+        <v>0.0003702191363915069</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>6.72088624911391</v>
+        <v>7.512300333333333</v>
       </c>
       <c r="H24">
-        <v>6.72088624911391</v>
+        <v>22.536901</v>
       </c>
       <c r="I24">
-        <v>0.006058119993098176</v>
+        <v>0.006467483303666671</v>
       </c>
       <c r="J24">
-        <v>0.006058119993098176</v>
+        <v>0.006467483303666671</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>62.0549505764634</v>
+        <v>62.4849</v>
       </c>
       <c r="N24">
-        <v>62.0549505764634</v>
+        <v>187.4547</v>
       </c>
       <c r="O24">
-        <v>0.3399099336555321</v>
+        <v>0.3392015343967147</v>
       </c>
       <c r="P24">
-        <v>0.3399099336555321</v>
+        <v>0.3392015343967146</v>
       </c>
       <c r="Q24">
-        <v>417.0642640187962</v>
+        <v>469.4053350983</v>
       </c>
       <c r="R24">
-        <v>417.0642640187962</v>
+        <v>4224.6480158847</v>
       </c>
       <c r="S24">
-        <v>0.002059215164931253</v>
+        <v>0.002193780260288869</v>
       </c>
       <c r="T24">
-        <v>0.002059215164931253</v>
+        <v>0.002193780260288868</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>6.72088624911391</v>
+        <v>7.512300333333333</v>
       </c>
       <c r="H25">
-        <v>6.72088624911391</v>
+        <v>22.536901</v>
       </c>
       <c r="I25">
-        <v>0.006058119993098176</v>
+        <v>0.006467483303666671</v>
       </c>
       <c r="J25">
-        <v>0.006058119993098176</v>
+        <v>0.006467483303666671</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>93.5069834691996</v>
+        <v>94.42181166666666</v>
       </c>
       <c r="N25">
-        <v>93.5069834691996</v>
+        <v>283.265435</v>
       </c>
       <c r="O25">
-        <v>0.5121904417308454</v>
+        <v>0.512572211811989</v>
       </c>
       <c r="P25">
-        <v>0.5121904417308454</v>
+        <v>0.5125722118119888</v>
       </c>
       <c r="Q25">
-        <v>628.4497993942653</v>
+        <v>709.3250072574372</v>
       </c>
       <c r="R25">
-        <v>628.4497993942653</v>
+        <v>6383.925065316935</v>
       </c>
       <c r="S25">
-        <v>0.003102911155323421</v>
+        <v>0.003315052221817535</v>
       </c>
       <c r="T25">
-        <v>0.003102911155323421</v>
+        <v>0.003315052221817534</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>6.72088624911391</v>
+        <v>7.512300333333333</v>
       </c>
       <c r="H26">
-        <v>6.72088624911391</v>
+        <v>22.536901</v>
       </c>
       <c r="I26">
-        <v>0.006058119993098176</v>
+        <v>0.006467483303666671</v>
       </c>
       <c r="J26">
-        <v>0.006058119993098176</v>
+        <v>0.006467483303666671</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.73353914114111</v>
+        <v>1.984323333333333</v>
       </c>
       <c r="N26">
-        <v>1.73353914114111</v>
+        <v>5.952970000000001</v>
       </c>
       <c r="O26">
-        <v>0.009495570763987301</v>
+        <v>0.01077197081864371</v>
       </c>
       <c r="P26">
-        <v>0.009495570763987301</v>
+        <v>0.01077197081864371</v>
       </c>
       <c r="Q26">
-        <v>11.65091937599602</v>
+        <v>14.90683283844111</v>
       </c>
       <c r="R26">
-        <v>11.65091937599602</v>
+        <v>134.16149554597</v>
       </c>
       <c r="S26">
-        <v>5.752530709118998E-05</v>
+        <v>6.966754141716279E-05</v>
       </c>
       <c r="T26">
-        <v>5.752530709118998E-05</v>
+        <v>6.966754141716277E-05</v>
       </c>
     </row>
   </sheetData>
